--- a/song(v.11-27).xlsx
+++ b/song(v.11-27).xlsx
@@ -19,6 +19,7 @@
     <definedName name="APD_use_ALL_range">'곡 데이터(출시순)'!$B$3:$D$1048576</definedName>
     <definedName name="APD_use_Name_convert">'곡 데이터(출시순)'!$B$3:$B$1048576</definedName>
     <definedName name="APD_use_Name_origin">'곡 데이터(출시순)'!$C$3:$C$1048576</definedName>
+    <definedName name="song">'곡 데이터(출시순)'!$A$3:$J$1048576</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -7613,7 +7614,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_-&quot;Lv&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;APD.&quot;* 0"/>
-    <numFmt numFmtId="179" formatCode="00##&quot;.&quot;_-##&quot;.&quot;_-##._-"/>
+    <numFmt numFmtId="178" formatCode="00##&quot;.&quot;_-##&quot;.&quot;_-##._-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -7852,6 +7853,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7866,12 +7873,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8208,13 +8209,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K602"/>
+  <dimension ref="A1:K492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B475" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B464" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8230,37 +8231,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1301</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="1" t="s">
         <v>854</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="8" t="s">
         <v>96</v>
       </c>
@@ -23862,572 +23863,13 @@
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A490">
-        <v>488</v>
-      </c>
       <c r="E490" s="26"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A491">
-        <v>489</v>
-      </c>
       <c r="E491" s="27"/>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A492">
-        <v>490</v>
-      </c>
       <c r="E492" s="28"/>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A493">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A494">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A495">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A496">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A497">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A498">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A499">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A500">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A501">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A502">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A503">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A504">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A505">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A506">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A507">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A508">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A509">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A510">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A511">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A512">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A513">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A514">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A515">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A516">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A517">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A518">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A519">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A520">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A521">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A522">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A523">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A524">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A525">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A526">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A527">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A528">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A529">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A530">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A531">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A532">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A533">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A534">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A535">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A536">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A537">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A538">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A539">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A540">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A541">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A542">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A543">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A544">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A545">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A546">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A547">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A548">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A549">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A550">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A551">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A552">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A553">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A554">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A555">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A556">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A557">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A558">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A559">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A560">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A561">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A562">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A563">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A564">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A565">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A566">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A567">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A568">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A569">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A570">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A571">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A572">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A573">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A574">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A575">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A576">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A577">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A578">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A579">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A580">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A581">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A582">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A583">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A584">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A585">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A586">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A587">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A588">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A589">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A590">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A591">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A592">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A593">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A594">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A595">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A596">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A597">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A598">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A599">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A600">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A601">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A602">
-        <v>600</v>
-      </c>
     </row>
   </sheetData>
   <customSheetViews>
@@ -24467,41 +23909,41 @@
     <col min="3" max="3" width="31.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="22" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>1306</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>1299</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>854</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="24">
@@ -24517,7 +23959,7 @@
         <f t="shared" ref="E3:E14" si="0">INDEX(APD_use_ALL_range,_xlfn.IFNA(MATCH(D3,APD_use_Name_origin,0),MATCH(C3,APD_use_Name_convert,0)),3)</f>
         <v>livetune</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="29">
         <v>20230930</v>
       </c>
       <c r="G3" s="22">
@@ -24538,7 +23980,7 @@
         <f t="shared" si="0"/>
         <v>じん</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="29">
         <v>20230930</v>
       </c>
       <c r="G4" s="22">
@@ -24559,7 +24001,7 @@
         <f t="shared" si="0"/>
         <v>DECO*27</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="29">
         <v>20230930</v>
       </c>
       <c r="G5" s="22">
@@ -24580,7 +24022,7 @@
         <f t="shared" si="0"/>
         <v>じん</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="29">
         <v>20230930</v>
       </c>
       <c r="G6" s="22">
@@ -24601,7 +24043,7 @@
         <f t="shared" si="0"/>
         <v>ナユタン星人</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="29">
         <v>20230930</v>
       </c>
       <c r="G7" s="22">
@@ -24622,7 +24064,7 @@
         <f t="shared" si="0"/>
         <v>DECO*27</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="29">
         <v>20230930</v>
       </c>
       <c r="G8" s="22">
@@ -24643,7 +24085,7 @@
         <f t="shared" si="0"/>
         <v>Ayase</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="29">
         <v>20230930</v>
       </c>
       <c r="G9" s="22">
@@ -24664,7 +24106,7 @@
         <f t="shared" si="0"/>
         <v>栗山夕璃 (蜂屋ななし)</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="29">
         <v>20230930</v>
       </c>
       <c r="G10" s="22">
@@ -24685,7 +24127,7 @@
         <f t="shared" si="0"/>
         <v>sasakure.UK</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="29">
         <v>20230930</v>
       </c>
       <c r="G11" s="22">
@@ -24706,7 +24148,7 @@
         <f t="shared" si="0"/>
         <v>すりぃ</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <v>20230930</v>
       </c>
       <c r="G12" s="22">
@@ -24727,7 +24169,7 @@
         <f t="shared" si="0"/>
         <v>れるりり</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="29">
         <v>20230930</v>
       </c>
       <c r="G13" s="22">
@@ -24748,7 +24190,7 @@
         <f t="shared" si="0"/>
         <v>wotaku</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <v>20230930</v>
       </c>
       <c r="G14" s="22">
@@ -24768,7 +24210,7 @@
       <c r="E15" s="14" t="s">
         <v>1438</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="29">
         <v>20230930</v>
       </c>
       <c r="G15" s="22">
@@ -24789,7 +24231,7 @@
         <f t="shared" ref="E16:E47" si="1">INDEX(APD_use_ALL_range,_xlfn.IFNA(MATCH(D16,APD_use_Name_origin,0),MATCH(C16,APD_use_Name_convert,0)),3)</f>
         <v>irucaice</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="30">
         <v>20231022</v>
       </c>
       <c r="G16" s="22">
@@ -24810,7 +24252,7 @@
         <f t="shared" si="1"/>
         <v>Junky</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="30">
         <v>20231031</v>
       </c>
       <c r="G17" s="22">
@@ -24831,7 +24273,7 @@
         <f t="shared" si="1"/>
         <v>とあ</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="30">
         <v>20231108</v>
       </c>
       <c r="G18" s="22">
@@ -24852,7 +24294,7 @@
         <f t="shared" si="1"/>
         <v>梅とら</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="30">
         <v>20231130</v>
       </c>
       <c r="G19" s="22">
@@ -24873,7 +24315,7 @@
         <f t="shared" si="1"/>
         <v>まらしぃ</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="30">
         <v>20231208</v>
       </c>
       <c r="G20" s="22">
@@ -24894,7 +24336,7 @@
         <f t="shared" si="1"/>
         <v>Neru</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="30">
         <v>20231220</v>
       </c>
       <c r="G21" s="22">
@@ -24915,7 +24357,7 @@
         <f t="shared" si="1"/>
         <v>いよわ</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="30">
         <v>20231231</v>
       </c>
       <c r="G22" s="22">
@@ -24936,7 +24378,7 @@
         <f t="shared" si="1"/>
         <v>バルーン</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="30">
         <v>20240109</v>
       </c>
       <c r="G23" s="22">
@@ -24957,7 +24399,7 @@
         <f t="shared" si="1"/>
         <v>ぬゆり</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="30">
         <v>20240111</v>
       </c>
       <c r="G24" s="22">
@@ -24978,7 +24420,7 @@
         <f t="shared" si="1"/>
         <v>かめりあ</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="30">
         <v>20240118</v>
       </c>
       <c r="G25" s="22">
@@ -24999,7 +24441,7 @@
         <f t="shared" si="1"/>
         <v>kemu</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="30">
         <v>20240123</v>
       </c>
       <c r="G26" s="22">
@@ -25020,7 +24462,7 @@
         <f t="shared" si="1"/>
         <v>MisoilePunch♪</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="30">
         <v>20240125</v>
       </c>
       <c r="G27" s="22">
@@ -25041,7 +24483,7 @@
         <f t="shared" si="1"/>
         <v>Orangestar</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="30">
         <v>20240131</v>
       </c>
       <c r="G28" s="22">
@@ -25062,7 +24504,7 @@
         <f t="shared" si="1"/>
         <v>Eve</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="30">
         <v>20240209</v>
       </c>
       <c r="G29" s="22">
@@ -25083,7 +24525,7 @@
         <f t="shared" si="1"/>
         <v>ゆうゆ</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="30">
         <v>20240218</v>
       </c>
       <c r="G30" s="22">
@@ -25104,7 +24546,7 @@
         <f t="shared" si="1"/>
         <v>稲葉曇</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="30">
         <v>20240229</v>
       </c>
       <c r="G31" s="22">
@@ -25125,7 +24567,7 @@
         <f t="shared" si="1"/>
         <v>ika_mo</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="30">
         <v>20240309</v>
       </c>
       <c r="G32" s="22">
@@ -25146,7 +24588,7 @@
         <f t="shared" si="1"/>
         <v>Chinozo</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="30">
         <v>20240322</v>
       </c>
       <c r="G33" s="22">
@@ -25167,7 +24609,7 @@
         <f t="shared" si="1"/>
         <v>八王子P</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="30">
         <v>20240322</v>
       </c>
       <c r="G34" s="22">
@@ -25188,7 +24630,7 @@
         <f t="shared" si="1"/>
         <v>takamatt</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="30">
         <v>20240329</v>
       </c>
       <c r="G35" s="22">
@@ -25209,7 +24651,7 @@
         <f t="shared" si="1"/>
         <v>halyosy</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="30">
         <v>20240410</v>
       </c>
       <c r="G36" s="22">
@@ -25230,7 +24672,7 @@
         <f t="shared" si="1"/>
         <v>Kanaria</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="30">
         <v>20240415</v>
       </c>
       <c r="G37" s="22">
@@ -25251,7 +24693,7 @@
         <f t="shared" si="1"/>
         <v>kz(livetune)</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="30">
         <v>20240419</v>
       </c>
       <c r="G38" s="22">
@@ -25272,7 +24714,7 @@
         <f t="shared" si="1"/>
         <v>Ponchi♪</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="30">
         <v>20240419</v>
       </c>
       <c r="G39" s="22">
@@ -25293,7 +24735,7 @@
         <f t="shared" si="1"/>
         <v>Kanaria</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="30">
         <v>20240430</v>
       </c>
       <c r="G40" s="22">
@@ -25314,7 +24756,7 @@
         <f t="shared" si="1"/>
         <v>ビートまりお × まろん</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="30">
         <v>20240503</v>
       </c>
       <c r="G41" s="22">
@@ -25335,7 +24777,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">ビートまりお × まろん × まらしぃ </v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="30">
         <v>20240504</v>
       </c>
       <c r="G42" s="22">
@@ -25356,7 +24798,7 @@
         <f t="shared" si="1"/>
         <v>ビートまりお × まろん</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="30">
         <v>20240505</v>
       </c>
       <c r="G43" s="22">
@@ -25377,7 +24819,7 @@
         <f t="shared" si="1"/>
         <v>40mP</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="30">
         <v>20240509</v>
       </c>
       <c r="G44" s="22">
@@ -25398,7 +24840,7 @@
         <f t="shared" si="1"/>
         <v>Neru</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="30">
         <v>20240513</v>
       </c>
       <c r="G45" s="22">
@@ -25419,7 +24861,7 @@
         <f t="shared" si="1"/>
         <v>ポリスピカデリー</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="30">
         <v>20240522</v>
       </c>
       <c r="G46" s="22">
@@ -25440,7 +24882,7 @@
         <f t="shared" si="1"/>
         <v>ナユタン星人</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="30">
         <v>20240529</v>
       </c>
       <c r="G47" s="22">
@@ -25458,10 +24900,10 @@
         <v>1819</v>
       </c>
       <c r="E48" s="7" t="str">
-        <f t="shared" ref="E48:E79" si="2">INDEX(APD_use_ALL_range,_xlfn.IFNA(MATCH(D48,APD_use_Name_origin,0),MATCH(C48,APD_use_Name_convert,0)),3)</f>
+        <f t="shared" ref="E48:E71" si="2">INDEX(APD_use_ALL_range,_xlfn.IFNA(MATCH(D48,APD_use_Name_origin,0),MATCH(C48,APD_use_Name_convert,0)),3)</f>
         <v>ぬゆり</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="30">
         <v>20240531</v>
       </c>
       <c r="G48" s="22">
@@ -25482,7 +24924,7 @@
         <f t="shared" si="2"/>
         <v>雄之助</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="30">
         <v>20240610</v>
       </c>
       <c r="G49" s="22">
@@ -25503,7 +24945,7 @@
         <f t="shared" si="2"/>
         <v>雄之助 × 春野</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="30">
         <v>20240618</v>
       </c>
       <c r="G50" s="22">
@@ -25524,7 +24966,7 @@
         <f t="shared" si="2"/>
         <v>40mP × 一二三 (12340mP)</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="30">
         <v>20240620</v>
       </c>
       <c r="G51" s="22">
@@ -25545,7 +24987,7 @@
         <f t="shared" si="2"/>
         <v>はるまきごはん</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="30">
         <v>20240620</v>
       </c>
       <c r="G52" s="22">
@@ -25566,7 +25008,7 @@
         <f t="shared" si="2"/>
         <v>加賀(ネギシャワーP)</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="30">
         <v>20240630</v>
       </c>
       <c r="G53" s="22">
@@ -25587,7 +25029,7 @@
         <f t="shared" si="2"/>
         <v>想太</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="30">
         <v>20240709</v>
       </c>
       <c r="G54" s="22">
@@ -25608,7 +25050,7 @@
         <f t="shared" si="2"/>
         <v>cosMo@暴走P</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="30">
         <v>20240709</v>
       </c>
       <c r="G55" s="22">
@@ -25629,7 +25071,7 @@
         <f t="shared" si="2"/>
         <v>23.exe</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="30">
         <v>20240717</v>
       </c>
       <c r="G56" s="22">
@@ -25650,7 +25092,7 @@
         <f t="shared" si="2"/>
         <v>Junky</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="30">
         <v>20240731</v>
       </c>
       <c r="G57" s="22">
@@ -25671,7 +25113,7 @@
         <f t="shared" si="2"/>
         <v>みきとP</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="30">
         <v>20240731</v>
       </c>
       <c r="G58" s="22">
@@ -25692,7 +25134,7 @@
         <f t="shared" si="2"/>
         <v>夏代孝明</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="30">
         <v>20240807</v>
       </c>
       <c r="G59" s="22">
@@ -25713,7 +25155,7 @@
         <f t="shared" si="2"/>
         <v>まらしぃ × 堀江晶太(kemu)</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="30">
         <v>20240809</v>
       </c>
       <c r="G60" s="22">
@@ -25734,7 +25176,7 @@
         <f t="shared" si="2"/>
         <v>じん</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="30">
         <v>20240816</v>
       </c>
       <c r="G61" s="22">
@@ -25755,7 +25197,7 @@
         <f t="shared" si="2"/>
         <v>かいりきベア</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="30">
         <v>20240830</v>
       </c>
       <c r="G62" s="22">
@@ -25776,7 +25218,7 @@
         <f t="shared" si="2"/>
         <v>Chinozo</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="30">
         <v>20240910</v>
       </c>
       <c r="G63" s="22">
@@ -25797,7 +25239,7 @@
         <f t="shared" si="2"/>
         <v>みきとP</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="30">
         <v>20240920</v>
       </c>
       <c r="G64" s="22">
@@ -25818,7 +25260,7 @@
         <f t="shared" si="2"/>
         <v>kemu</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="30">
         <v>20240930</v>
       </c>
       <c r="G65" s="22">
@@ -25839,7 +25281,7 @@
         <f t="shared" si="2"/>
         <v>かめりあ</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="30">
         <v>20241010</v>
       </c>
       <c r="G66" s="22">
@@ -25860,7 +25302,7 @@
         <f t="shared" si="2"/>
         <v>keeno</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="30">
         <v>20241012</v>
       </c>
       <c r="G67" s="22">
@@ -25881,7 +25323,7 @@
         <f t="shared" si="2"/>
         <v>Aira</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="30">
         <v>20241021</v>
       </c>
       <c r="G68" s="22">
@@ -25902,7 +25344,7 @@
         <f t="shared" si="2"/>
         <v>TOKOTOKO(西沢さんP)</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="30">
         <v>20241031</v>
       </c>
       <c r="G69" s="22">
@@ -25923,7 +25365,7 @@
         <f t="shared" si="2"/>
         <v>DECO*27</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="30">
         <v>20241108</v>
       </c>
       <c r="G70" s="22">
@@ -25944,7 +25386,7 @@
         <f t="shared" si="2"/>
         <v>羽生まゐご</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="F71" s="30" t="s">
         <v>1851</v>
       </c>
       <c r="G71" s="22">
